--- a/excel_files/grade2_kanji.xlsx
+++ b/excel_files/grade2_kanji.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Blad1" sheetId="1" r:id="rId3"/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>数</t>
   </si>
@@ -821,13 +821,163 @@
   </si>
   <si>
     <t>buy</t>
+  </si>
+  <si>
+    <t>売</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>午</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>汽</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>bow</t>
+  </si>
+  <si>
+    <t>回</t>
+  </si>
+  <si>
+    <t>-times</t>
+  </si>
+  <si>
+    <t>会</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>組</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>明</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>社</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>切</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>電</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>毎</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>合</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>当</t>
+  </si>
+  <si>
+    <t>this, hit</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>pedestal</t>
+  </si>
+  <si>
+    <t>楽</t>
+  </si>
+  <si>
+    <t>music, pleasure</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>科</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>番</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>用</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>what</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -836,6 +986,12 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -851,12 +1007,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,11 +1029,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1960,7 +2122,234 @@
         <v>269</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A137"/>
+    <hyperlink r:id="rId2" ref="A138"/>
+    <hyperlink r:id="rId3" ref="A139"/>
+    <hyperlink r:id="rId4" ref="A140"/>
+    <hyperlink r:id="rId5" ref="A141"/>
+    <hyperlink r:id="rId6" ref="A142"/>
+    <hyperlink r:id="rId7" ref="A143"/>
+    <hyperlink r:id="rId8" ref="A144"/>
+    <hyperlink r:id="rId9" ref="A145"/>
+    <hyperlink r:id="rId10" ref="A146"/>
+    <hyperlink r:id="rId11" ref="A147"/>
+    <hyperlink r:id="rId12" ref="A148"/>
+    <hyperlink r:id="rId13" ref="A149"/>
+    <hyperlink r:id="rId14" ref="A150"/>
+    <hyperlink r:id="rId15" ref="A151"/>
+    <hyperlink r:id="rId16" ref="A152"/>
+    <hyperlink r:id="rId17" ref="A153"/>
+    <hyperlink r:id="rId18" ref="A154"/>
+    <hyperlink r:id="rId19" ref="A155"/>
+    <hyperlink r:id="rId20" ref="A156"/>
+    <hyperlink r:id="rId21" ref="A157"/>
+    <hyperlink r:id="rId22" ref="A158"/>
+    <hyperlink r:id="rId23" ref="A159"/>
+    <hyperlink r:id="rId24" ref="A160"/>
+    <hyperlink r:id="rId25" ref="A161"/>
+  </hyperlinks>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>